--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -43,46 +43,46 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>disappointing</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>broken</t>
   </si>
   <si>
     <t>plastic</t>
@@ -91,54 +91,51 @@
     <t>apart</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>bit</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
+    <t>hard</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
+    <t>better</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -148,78 +145,81 @@
     <t>2</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>learn</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
@@ -229,13 +229,13 @@
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -668,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8275862068965517</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K4">
-        <v>0.8461538461538461</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7727272727272727</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.703125</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6901408450704225</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K7">
-        <v>0.78125</v>
+        <v>0.703125</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6559139784946236</v>
+        <v>0.640625</v>
       </c>
       <c r="C8">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>56</v>
@@ -968,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.631578947368421</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K9">
-        <v>0.5652173913043478</v>
+        <v>0.5552367288378766</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>387</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>387</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6190476190476191</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K10">
-        <v>0.5480631276901005</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L10">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>315</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6067961165048543</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K11">
-        <v>0.520746887966805</v>
+        <v>0.5062240663900415</v>
       </c>
       <c r="L11">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M11">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6013513513513513</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C12">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K12">
-        <v>0.4631147540983607</v>
+        <v>0.4598360655737705</v>
       </c>
       <c r="L12">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M12">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5714285714285714</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K13">
-        <v>0.3614457831325301</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="L13">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>106</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K14">
-        <v>0.3516819571865443</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L14">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="M14">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>212</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K15">
-        <v>0.3083333333333333</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.472463768115942</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C16">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K16">
-        <v>0.291005291005291</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.462962962962963</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K17">
-        <v>0.1984126984126984</v>
+        <v>0.208</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4251968503937008</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C18">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K18">
-        <v>0.1888111888111888</v>
+        <v>0.1953125</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1492,13 +1492,13 @@
         <v>67</v>
       </c>
       <c r="K19">
-        <v>0.1875</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3838862559241706</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C20">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K20">
-        <v>0.1827956989247312</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,7 +1568,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3833333333333334</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C21">
         <v>23</v>
@@ -1586,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K21">
-        <v>0.1807228915662651</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3734939759036144</v>
+        <v>0.3649289099526066</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1636,31 +1636,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K22">
-        <v>0.1507449605609115</v>
+        <v>0.1527655838454785</v>
       </c>
       <c r="L22">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M22">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,13 +1668,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.359375</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K23">
-        <v>0.08288770053475936</v>
+        <v>0.08077994428969359</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3515625</v>
+        <v>0.3125</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1736,31 +1736,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K24">
-        <v>0.07082521117608837</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="L24">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1430</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,13 +1768,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3370786516853932</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1786,31 +1786,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K25">
-        <v>0.06128133704735376</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>337</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,13 +1818,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2623762376237624</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1836,31 +1836,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K26">
-        <v>0.03457446808510638</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,13 +1868,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2448979591836735</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1894,13 +1894,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2268041237113402</v>
+        <v>0.18</v>
       </c>
       <c r="C28">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1920,13 +1920,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.188034188034188</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>95</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1946,25 +1946,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1740506329113924</v>
+        <v>0.1768202080237742</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>261</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1972,13 +1972,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1666666666666667</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1998,22 +1998,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1580459770114943</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>55</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>293</v>
@@ -2024,13 +2024,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1557863501483679</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C33">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>569</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2050,13 +2050,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1455696202531646</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2076,25 +2076,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.14</v>
+        <v>0.1368653421633554</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>172</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2102,13 +2102,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1233480176211454</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="C36">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>398</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2128,13 +2128,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1169354838709677</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2154,25 +2154,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1161048689138577</v>
+        <v>0.08258928571428571</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>236</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2180,13 +2180,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1121495327102804</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>190</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2206,25 +2206,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08258928571428571</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E40">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>411</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2232,25 +2232,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.07123287671232877</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>339</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2258,25 +2258,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.06754530477759473</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="F42">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>566</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2284,25 +2284,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03834355828220859</v>
+        <v>0.04198473282442748</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E43">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="F43">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>627</v>
+        <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2310,25 +2310,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.03557814485387548</v>
+        <v>0.03374233128834356</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E44">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="F44">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>759</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
